--- a/Code/Results/Cases/Case_4_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9979504391936718</v>
+        <v>1.044907436455103</v>
       </c>
       <c r="D2">
-        <v>1.015760779389873</v>
+        <v>1.043104113287314</v>
       </c>
       <c r="E2">
-        <v>1.013081120239326</v>
+        <v>1.058259258798868</v>
       </c>
       <c r="F2">
-        <v>1.014852073448606</v>
+        <v>1.065190605937569</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044514768060089</v>
+        <v>1.036213688336276</v>
       </c>
       <c r="J2">
-        <v>1.020192625563606</v>
+        <v>1.04997000918498</v>
       </c>
       <c r="K2">
-        <v>1.027004822893646</v>
+        <v>1.045878920927564</v>
       </c>
       <c r="L2">
-        <v>1.024361173452869</v>
+        <v>1.060991981814341</v>
       </c>
       <c r="M2">
-        <v>1.026108301517993</v>
+        <v>1.067904513160727</v>
       </c>
       <c r="N2">
-        <v>1.009660349042979</v>
+        <v>1.020377239862884</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005507756100946</v>
+        <v>1.046390200558179</v>
       </c>
       <c r="D3">
-        <v>1.021293397045579</v>
+        <v>1.044182475708159</v>
       </c>
       <c r="E3">
-        <v>1.020464303743858</v>
+        <v>1.059770249435896</v>
       </c>
       <c r="F3">
-        <v>1.022858040888416</v>
+        <v>1.066848038827471</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046826600760603</v>
+        <v>1.036546243454111</v>
       </c>
       <c r="J3">
-        <v>1.025849391993106</v>
+        <v>1.051097584402256</v>
       </c>
       <c r="K3">
-        <v>1.031660885607599</v>
+        <v>1.046767550902195</v>
       </c>
       <c r="L3">
-        <v>1.030841868222362</v>
+        <v>1.062315203554813</v>
       </c>
       <c r="M3">
-        <v>1.033206569698991</v>
+        <v>1.069375192515088</v>
       </c>
       <c r="N3">
-        <v>1.011639523711083</v>
+        <v>1.020763360413833</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010244970450558</v>
+        <v>1.04734791772583</v>
       </c>
       <c r="D4">
-        <v>1.024762192800909</v>
+        <v>1.044878428622993</v>
       </c>
       <c r="E4">
-        <v>1.025098406218577</v>
+        <v>1.060746614319666</v>
       </c>
       <c r="F4">
-        <v>1.027884701666628</v>
+        <v>1.067919370122905</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048258703221741</v>
+        <v>1.036758891133731</v>
       </c>
       <c r="J4">
-        <v>1.029390190495116</v>
+        <v>1.051825079152873</v>
       </c>
       <c r="K4">
-        <v>1.034570670692772</v>
+        <v>1.047340146104563</v>
       </c>
       <c r="L4">
-        <v>1.034903066182802</v>
+        <v>1.063169567162823</v>
       </c>
       <c r="M4">
-        <v>1.037657839815982</v>
+        <v>1.07032520653673</v>
       </c>
       <c r="N4">
-        <v>1.012877182591465</v>
+        <v>1.021012193540338</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01220201841674</v>
+        <v>1.047750135821745</v>
       </c>
       <c r="D5">
-        <v>1.02619527668998</v>
+        <v>1.04517057640113</v>
       </c>
       <c r="E5">
-        <v>1.027014253219773</v>
+        <v>1.061156763300459</v>
       </c>
       <c r="F5">
-        <v>1.029963271221137</v>
+        <v>1.068369493817113</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048846167408646</v>
+        <v>1.036847682692136</v>
       </c>
       <c r="J5">
-        <v>1.030851692551976</v>
+        <v>1.052130415991772</v>
       </c>
       <c r="K5">
-        <v>1.035770562220452</v>
+        <v>1.04758029324843</v>
       </c>
       <c r="L5">
-        <v>1.03658050694781</v>
+        <v>1.063528305868115</v>
       </c>
       <c r="M5">
-        <v>1.039497148818677</v>
+        <v>1.070724213832518</v>
       </c>
       <c r="N5">
-        <v>1.01338773377051</v>
+        <v>1.021116562537635</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01252865185612</v>
+        <v>1.047817646422947</v>
       </c>
       <c r="D6">
-        <v>1.026434459139216</v>
+        <v>1.045219604173556</v>
       </c>
       <c r="E6">
-        <v>1.027334090875999</v>
+        <v>1.061225610880315</v>
       </c>
       <c r="F6">
-        <v>1.030310300421881</v>
+        <v>1.068445056334932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048943968347454</v>
+        <v>1.036862555735072</v>
       </c>
       <c r="J6">
-        <v>1.031095541825657</v>
+        <v>1.052181654129581</v>
       </c>
       <c r="K6">
-        <v>1.035970693189972</v>
+        <v>1.047620581606921</v>
       </c>
       <c r="L6">
-        <v>1.036860452726646</v>
+        <v>1.063588514324245</v>
       </c>
       <c r="M6">
-        <v>1.039804153321451</v>
+        <v>1.070791186936565</v>
       </c>
       <c r="N6">
-        <v>1.013472899846113</v>
+        <v>1.021134072509047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010271253425824</v>
+        <v>1.04735329376988</v>
       </c>
       <c r="D7">
-        <v>1.024781438963206</v>
+        <v>1.044882334002862</v>
       </c>
       <c r="E7">
-        <v>1.025124130404828</v>
+        <v>1.060752095977962</v>
       </c>
       <c r="F7">
-        <v>1.027912608998265</v>
+        <v>1.067925385724389</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048266609421643</v>
+        <v>1.036760079947741</v>
       </c>
       <c r="J7">
-        <v>1.029409823481032</v>
+        <v>1.051829161043603</v>
       </c>
       <c r="K7">
-        <v>1.034586793972671</v>
+        <v>1.047343357203966</v>
       </c>
       <c r="L7">
-        <v>1.034925595434131</v>
+        <v>1.063174362350587</v>
       </c>
       <c r="M7">
-        <v>1.037682540073425</v>
+        <v>1.070330539569812</v>
       </c>
       <c r="N7">
-        <v>1.01288404228261</v>
+        <v>1.021013589066336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000537462487027</v>
+        <v>1.045408906668425</v>
       </c>
       <c r="D8">
-        <v>1.017654467633041</v>
+        <v>1.043468930599585</v>
       </c>
       <c r="E8">
-        <v>1.015607223613896</v>
+        <v>1.058770188722515</v>
       </c>
       <c r="F8">
-        <v>1.017590926102466</v>
+        <v>1.065750984095224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045309706056969</v>
+        <v>1.03632660356311</v>
       </c>
       <c r="J8">
-        <v>1.022130085580183</v>
+        <v>1.050351521476468</v>
       </c>
       <c r="K8">
-        <v>1.028600492398886</v>
+        <v>1.046179738895705</v>
       </c>
       <c r="L8">
-        <v>1.026579855068666</v>
+        <v>1.061439557930471</v>
       </c>
       <c r="M8">
-        <v>1.028537774660964</v>
+        <v>1.068401874982852</v>
       </c>
       <c r="N8">
-        <v>1.010338460180901</v>
+        <v>1.020507941997458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9821079164714163</v>
+        <v>1.041969033489621</v>
       </c>
       <c r="D9">
-        <v>1.004173333612653</v>
+        <v>1.040964179528591</v>
       </c>
       <c r="E9">
-        <v>0.9976403675836382</v>
+        <v>1.055267152062418</v>
       </c>
       <c r="F9">
-        <v>0.9981166862455063</v>
+        <v>1.061910303127156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039576278903501</v>
+        <v>1.03554323579818</v>
       </c>
       <c r="J9">
-        <v>1.008308705423527</v>
+        <v>1.047731210329054</v>
       </c>
       <c r="K9">
-        <v>1.017199062333899</v>
+        <v>1.044110648099917</v>
       </c>
       <c r="L9">
-        <v>1.010771844539675</v>
+        <v>1.058368132878577</v>
       </c>
       <c r="M9">
-        <v>1.011240392981467</v>
+        <v>1.064990611932563</v>
       </c>
       <c r="N9">
-        <v>1.005496755675382</v>
+        <v>1.019609081544482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9687930832903386</v>
+        <v>1.03966612184061</v>
       </c>
       <c r="D10">
-        <v>0.9944529868926502</v>
+        <v>1.039284522351295</v>
       </c>
       <c r="E10">
-        <v>0.9846999084893356</v>
+        <v>1.052924139000165</v>
       </c>
       <c r="F10">
-        <v>0.9840961680663595</v>
+        <v>1.059343181922102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035347884697865</v>
+        <v>1.035007732205117</v>
       </c>
       <c r="J10">
-        <v>0.9983019977134552</v>
+        <v>1.045972846633695</v>
       </c>
       <c r="K10">
-        <v>1.008923121874388</v>
+        <v>1.042718426614907</v>
       </c>
       <c r="L10">
-        <v>0.9993510171600998</v>
+        <v>1.056310339760023</v>
       </c>
       <c r="M10">
-        <v>0.9987586334876215</v>
+        <v>1.062707400093712</v>
       </c>
       <c r="N10">
-        <v>1.001987072647005</v>
+        <v>1.019004439688277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.962738423626083</v>
+        <v>1.038666529711178</v>
       </c>
       <c r="D11">
-        <v>0.9900402193433826</v>
+        <v>1.038554813012468</v>
       </c>
       <c r="E11">
-        <v>0.9788262103842124</v>
+        <v>1.05190766374732</v>
       </c>
       <c r="F11">
-        <v>0.9777328969544693</v>
+        <v>1.058229886935084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033406142754971</v>
+        <v>1.034772679016025</v>
       </c>
       <c r="J11">
-        <v>0.9937479031606141</v>
+        <v>1.045208644853335</v>
       </c>
       <c r="K11">
-        <v>1.005152438920052</v>
+        <v>1.042112471218639</v>
       </c>
       <c r="L11">
-        <v>0.9941587937474127</v>
+        <v>1.05541677969784</v>
       </c>
       <c r="M11">
-        <v>0.9930873205173008</v>
+        <v>1.061716490729595</v>
       </c>
       <c r="N11">
-        <v>1.000389188772111</v>
+        <v>1.018741313427918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.960441459555498</v>
+        <v>1.038294863764729</v>
       </c>
       <c r="D12">
-        <v>0.988367516715818</v>
+        <v>1.038283398808978</v>
       </c>
       <c r="E12">
-        <v>0.9765996254848763</v>
+        <v>1.051529799365576</v>
       </c>
       <c r="F12">
-        <v>0.9753207604463933</v>
+        <v>1.057816091435959</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032666797536816</v>
+        <v>1.034684889917484</v>
       </c>
       <c r="J12">
-        <v>0.9920197736981442</v>
+        <v>1.044924355325623</v>
       </c>
       <c r="K12">
-        <v>1.003721022362814</v>
+        <v>1.04188691875562</v>
       </c>
       <c r="L12">
-        <v>0.9921893039133536</v>
+        <v>1.055084484149742</v>
       </c>
       <c r="M12">
-        <v>0.9909365575522516</v>
+        <v>1.061348073217804</v>
       </c>
       <c r="N12">
-        <v>0.9997827904181755</v>
+        <v>1.018643376957114</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9609364181523634</v>
+        <v>1.038374604407589</v>
       </c>
       <c r="D13">
-        <v>0.988727890425162</v>
+        <v>1.038341634812957</v>
       </c>
       <c r="E13">
-        <v>0.9770793385450784</v>
+        <v>1.051610866296616</v>
       </c>
       <c r="F13">
-        <v>0.9758404498164347</v>
+        <v>1.057904864281314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032826233972421</v>
+        <v>1.034703742735201</v>
       </c>
       <c r="J13">
-        <v>0.9923921751702908</v>
+        <v>1.044985356017109</v>
       </c>
       <c r="K13">
-        <v>1.004029508244679</v>
+        <v>1.041935322051294</v>
       </c>
       <c r="L13">
-        <v>0.9926136820111661</v>
+        <v>1.055155780350113</v>
       </c>
       <c r="M13">
-        <v>0.9913999758424284</v>
+        <v>1.061427116001948</v>
       </c>
       <c r="N13">
-        <v>0.9999134673830302</v>
+        <v>1.018664393738014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9625495635426493</v>
+        <v>1.038635815353295</v>
       </c>
       <c r="D14">
-        <v>0.9899026575383939</v>
+        <v>1.038532385365424</v>
       </c>
       <c r="E14">
-        <v>0.9786431012645123</v>
+        <v>1.051876435539082</v>
       </c>
       <c r="F14">
-        <v>0.977534528220205</v>
+        <v>1.058195688002175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033345406502914</v>
+        <v>1.034765432146457</v>
       </c>
       <c r="J14">
-        <v>0.9936058216496625</v>
+        <v>1.045185154227288</v>
       </c>
       <c r="K14">
-        <v>1.005034763245627</v>
+        <v>1.042093836677505</v>
       </c>
       <c r="L14">
-        <v>0.9939968525262237</v>
+        <v>1.055389320000466</v>
       </c>
       <c r="M14">
-        <v>0.9929104651526971</v>
+        <v>1.061686044411679</v>
       </c>
       <c r="N14">
-        <v>1.000339333415823</v>
+        <v>1.01873322205626</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9635369689487742</v>
+        <v>1.038796706323928</v>
       </c>
       <c r="D15">
-        <v>0.9906219208354742</v>
+        <v>1.038649864174053</v>
       </c>
       <c r="E15">
-        <v>0.9796005101363539</v>
+        <v>1.052040021447843</v>
       </c>
       <c r="F15">
-        <v>0.9785717248704728</v>
+        <v>1.05837483824166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03366284117518</v>
+        <v>1.034803377360964</v>
       </c>
       <c r="J15">
-        <v>0.9943486406109391</v>
+        <v>1.04530819916726</v>
       </c>
       <c r="K15">
-        <v>1.005649963087268</v>
+        <v>1.042191439833987</v>
       </c>
       <c r="L15">
-        <v>0.9948435322391103</v>
+        <v>1.055533159872071</v>
       </c>
       <c r="M15">
-        <v>0.9938351388823297</v>
+        <v>1.061845532130141</v>
       </c>
       <c r="N15">
-        <v>1.000599981170765</v>
+        <v>1.018775602922509</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.969188444442503</v>
+        <v>1.039732409727296</v>
       </c>
       <c r="D16">
-        <v>0.9947413086046896</v>
+        <v>1.039332899532548</v>
       </c>
       <c r="E16">
-        <v>0.9850836839820963</v>
+        <v>1.052991557536515</v>
       </c>
       <c r="F16">
-        <v>0.9845119397292653</v>
+        <v>1.059417030619178</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03547429801478</v>
+        <v>1.035023264760075</v>
       </c>
       <c r="J16">
-        <v>0.998599306885806</v>
+        <v>1.046023504165185</v>
       </c>
       <c r="K16">
-        <v>1.009169204862683</v>
+        <v>1.042758575773806</v>
       </c>
       <c r="L16">
-        <v>0.9996900958902019</v>
+        <v>1.056369588525502</v>
       </c>
       <c r="M16">
-        <v>0.9991290633824973</v>
+        <v>1.062773114978304</v>
       </c>
       <c r="N16">
-        <v>1.00209137924999</v>
+        <v>1.019021874649371</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9726530220582743</v>
+        <v>1.040318697894181</v>
       </c>
       <c r="D17">
-        <v>0.9972687502680002</v>
+        <v>1.039760700949658</v>
       </c>
       <c r="E17">
-        <v>0.9884479547730197</v>
+        <v>1.053587906226938</v>
       </c>
       <c r="F17">
-        <v>0.988156765093975</v>
+        <v>1.060070303886472</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036579948619432</v>
+        <v>1.035160342003308</v>
       </c>
       <c r="J17">
-        <v>1.001204240618041</v>
+        <v>1.046471436185752</v>
       </c>
       <c r="K17">
-        <v>1.01132483826063</v>
+        <v>1.043113487329589</v>
       </c>
       <c r="L17">
-        <v>1.002661611038979</v>
+        <v>1.056893576815667</v>
       </c>
       <c r="M17">
-        <v>1.002375685330358</v>
+        <v>1.06335435043481</v>
       </c>
       <c r="N17">
-        <v>1.003005217717098</v>
+        <v>1.019176001289233</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9746462821885685</v>
+        <v>1.040660437410436</v>
       </c>
       <c r="D18">
-        <v>0.9987235237329082</v>
+        <v>1.040009998482214</v>
       </c>
       <c r="E18">
-        <v>0.990384502026787</v>
+        <v>1.053935560261533</v>
       </c>
       <c r="F18">
-        <v>0.9902548729554469</v>
+        <v>1.060451182419854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037214271279825</v>
+        <v>1.035239990524099</v>
       </c>
       <c r="J18">
-        <v>1.002702566464948</v>
+        <v>1.046732435901169</v>
       </c>
       <c r="K18">
-        <v>1.012564327256804</v>
+        <v>1.043320201142822</v>
       </c>
       <c r="L18">
-        <v>1.004371301666348</v>
+        <v>1.057198967566122</v>
       </c>
       <c r="M18">
-        <v>1.004243967262712</v>
+        <v>1.063693157492927</v>
       </c>
       <c r="N18">
-        <v>1.0035307863856</v>
+        <v>1.019265774298317</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9753213834835792</v>
+        <v>1.040776922624693</v>
       </c>
       <c r="D19">
-        <v>0.9992163504357868</v>
+        <v>1.040094963364566</v>
       </c>
       <c r="E19">
-        <v>0.9910405609020373</v>
+        <v>1.054054070028262</v>
       </c>
       <c r="F19">
-        <v>0.9909656781746468</v>
+        <v>1.060581024537489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037428804249836</v>
+        <v>1.035267096733789</v>
       </c>
       <c r="J19">
-        <v>1.003209973094695</v>
+        <v>1.04682138424111</v>
       </c>
       <c r="K19">
-        <v>1.012984008273423</v>
+        <v>1.043390634483334</v>
       </c>
       <c r="L19">
-        <v>1.004950374384527</v>
+        <v>1.057303057004803</v>
       </c>
       <c r="M19">
-        <v>1.00487680772223</v>
+        <v>1.063808645298246</v>
       </c>
       <c r="N19">
-        <v>1.003708758477672</v>
+        <v>1.019296363201045</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9722841880060247</v>
+        <v>1.040255818837883</v>
       </c>
       <c r="D20">
-        <v>0.9969996107657699</v>
+        <v>1.039714825926133</v>
       </c>
       <c r="E20">
-        <v>0.9880896948799673</v>
+        <v>1.053523942970699</v>
       </c>
       <c r="F20">
-        <v>0.9877686224935781</v>
+        <v>1.060000230960817</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036462427396334</v>
+        <v>1.035145666615149</v>
       </c>
       <c r="J20">
-        <v>1.000926959554538</v>
+        <v>1.046423405451055</v>
       </c>
       <c r="K20">
-        <v>1.011095424373833</v>
+        <v>1.043075439760202</v>
       </c>
       <c r="L20">
-        <v>1.002345256360613</v>
+        <v>1.056837383002885</v>
       </c>
       <c r="M20">
-        <v>1.002030010537347</v>
+        <v>1.063292011963331</v>
       </c>
       <c r="N20">
-        <v>1.002907950549985</v>
+        <v>1.019159478057064</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9620758970931628</v>
+        <v>1.038558905614869</v>
       </c>
       <c r="D21">
-        <v>0.9895576716834564</v>
+        <v>1.038476224280593</v>
       </c>
       <c r="E21">
-        <v>0.9781838865789488</v>
+        <v>1.051798240380267</v>
       </c>
       <c r="F21">
-        <v>0.9770370446488464</v>
+        <v>1.058110055153221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033193035325206</v>
+        <v>1.034747279420682</v>
       </c>
       <c r="J21">
-        <v>0.9932494706223642</v>
+        <v>1.045126330591287</v>
       </c>
       <c r="K21">
-        <v>1.004739615049249</v>
+        <v>1.04204717119253</v>
       </c>
       <c r="L21">
-        <v>0.9935907044321287</v>
+        <v>1.055320559162487</v>
       </c>
       <c r="M21">
-        <v>0.9924669195875095</v>
+        <v>1.061609806178127</v>
       </c>
       <c r="N21">
-        <v>1.000214291734364</v>
+        <v>1.018712959363852</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9553770979599838</v>
+        <v>1.037489826329846</v>
       </c>
       <c r="D22">
-        <v>0.9846823952819611</v>
+        <v>1.037695336010245</v>
       </c>
       <c r="E22">
-        <v>0.9716937695894753</v>
+        <v>1.050711480963636</v>
       </c>
       <c r="F22">
-        <v>0.9700060589702529</v>
+        <v>1.056920069738679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031031865287293</v>
+        <v>1.034494019825314</v>
       </c>
       <c r="J22">
-        <v>0.9882089287847647</v>
+        <v>1.044308310985135</v>
       </c>
       <c r="K22">
-        <v>1.000563529110063</v>
+        <v>1.041397914650887</v>
       </c>
       <c r="L22">
-        <v>0.9878476363584893</v>
+        <v>1.054364625198199</v>
       </c>
       <c r="M22">
-        <v>0.9861960750789972</v>
+        <v>1.06055010884031</v>
       </c>
       <c r="N22">
-        <v>0.998445516131392</v>
+        <v>1.018431058902831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9589565384200569</v>
+        <v>1.038056773808173</v>
       </c>
       <c r="D23">
-        <v>0.9872865865031123</v>
+        <v>1.038109503628765</v>
       </c>
       <c r="E23">
-        <v>0.9751607054265389</v>
+        <v>1.051287760972971</v>
       </c>
       <c r="F23">
-        <v>0.9737619291601682</v>
+        <v>1.057551054649403</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03218808926625</v>
+        <v>1.034628541713795</v>
       </c>
       <c r="J23">
-        <v>0.9909024816639992</v>
+        <v>1.044742197873626</v>
       </c>
       <c r="K23">
-        <v>1.002795415377614</v>
+        <v>1.041742359797142</v>
       </c>
       <c r="L23">
-        <v>0.9909161829726285</v>
+        <v>1.054871599737995</v>
       </c>
       <c r="M23">
-        <v>0.9895463808095181</v>
+        <v>1.061112069879621</v>
       </c>
       <c r="N23">
-        <v>0.9993907240294828</v>
+        <v>1.018580610127112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9724509331000994</v>
+        <v>1.040284231895262</v>
       </c>
       <c r="D24">
-        <v>0.9971212831780605</v>
+        <v>1.039735555591069</v>
       </c>
       <c r="E24">
-        <v>0.988251656445877</v>
+        <v>1.053552845788069</v>
       </c>
       <c r="F24">
-        <v>0.9879440931726249</v>
+        <v>1.06003189440881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036515562780986</v>
+        <v>1.035152298737964</v>
       </c>
       <c r="J24">
-        <v>1.001052315854609</v>
+        <v>1.046445109311552</v>
       </c>
       <c r="K24">
-        <v>1.011199141613369</v>
+        <v>1.043092632746515</v>
       </c>
       <c r="L24">
-        <v>1.00248827590147</v>
+        <v>1.056862775318326</v>
       </c>
       <c r="M24">
-        <v>1.002186284340202</v>
+        <v>1.063320180708285</v>
       </c>
       <c r="N24">
-        <v>1.002951924359472</v>
+        <v>1.019166944585253</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9870399508324847</v>
+        <v>1.042859988724301</v>
       </c>
       <c r="D25">
-        <v>1.007778620419823</v>
+        <v>1.041613426407595</v>
       </c>
       <c r="E25">
-        <v>1.002442131654989</v>
+        <v>1.056174084410837</v>
       </c>
       <c r="F25">
-        <v>1.003320159933569</v>
+        <v>1.062904346221509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041125688135383</v>
+        <v>1.035748082426176</v>
       </c>
       <c r="J25">
-        <v>1.012011485026039</v>
+        <v>1.04841062050915</v>
       </c>
       <c r="K25">
-        <v>1.020257371607022</v>
+        <v>1.044647797128163</v>
       </c>
       <c r="L25">
-        <v>1.0150026546002</v>
+        <v>1.059163930886444</v>
       </c>
       <c r="M25">
-        <v>1.015867152415864</v>
+        <v>1.065874061674931</v>
       </c>
       <c r="N25">
-        <v>1.006794705227727</v>
+        <v>1.019842401231313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044907436455103</v>
+        <v>0.9979504391936728</v>
       </c>
       <c r="D2">
-        <v>1.043104113287314</v>
+        <v>1.015760779389873</v>
       </c>
       <c r="E2">
-        <v>1.058259258798868</v>
+        <v>1.013081120239327</v>
       </c>
       <c r="F2">
-        <v>1.065190605937569</v>
+        <v>1.014852073448607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036213688336276</v>
+        <v>1.044514768060089</v>
       </c>
       <c r="J2">
-        <v>1.04997000918498</v>
+        <v>1.020192625563607</v>
       </c>
       <c r="K2">
-        <v>1.045878920927564</v>
+        <v>1.027004822893647</v>
       </c>
       <c r="L2">
-        <v>1.060991981814341</v>
+        <v>1.02436117345287</v>
       </c>
       <c r="M2">
-        <v>1.067904513160727</v>
+        <v>1.026108301517994</v>
       </c>
       <c r="N2">
-        <v>1.020377239862884</v>
+        <v>1.009660349042979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.046390200558179</v>
+        <v>1.005507756100947</v>
       </c>
       <c r="D3">
-        <v>1.044182475708159</v>
+        <v>1.021293397045579</v>
       </c>
       <c r="E3">
-        <v>1.059770249435896</v>
+        <v>1.020464303743859</v>
       </c>
       <c r="F3">
-        <v>1.066848038827471</v>
+        <v>1.022858040888417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036546243454111</v>
+        <v>1.046826600760603</v>
       </c>
       <c r="J3">
-        <v>1.051097584402256</v>
+        <v>1.025849391993107</v>
       </c>
       <c r="K3">
-        <v>1.046767550902195</v>
+        <v>1.0316608856076</v>
       </c>
       <c r="L3">
-        <v>1.062315203554813</v>
+        <v>1.030841868222363</v>
       </c>
       <c r="M3">
-        <v>1.069375192515088</v>
+        <v>1.033206569698992</v>
       </c>
       <c r="N3">
-        <v>1.020763360413833</v>
+        <v>1.011639523711083</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04734791772583</v>
+        <v>1.010244970450562</v>
       </c>
       <c r="D4">
-        <v>1.044878428622993</v>
+        <v>1.024762192800911</v>
       </c>
       <c r="E4">
-        <v>1.060746614319666</v>
+        <v>1.02509840621858</v>
       </c>
       <c r="F4">
-        <v>1.067919370122905</v>
+        <v>1.027884701666632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036758891133731</v>
+        <v>1.048258703221743</v>
       </c>
       <c r="J4">
-        <v>1.051825079152873</v>
+        <v>1.029390190495119</v>
       </c>
       <c r="K4">
-        <v>1.047340146104563</v>
+        <v>1.034570670692775</v>
       </c>
       <c r="L4">
-        <v>1.063169567162823</v>
+        <v>1.034903066182805</v>
       </c>
       <c r="M4">
-        <v>1.07032520653673</v>
+        <v>1.037657839815985</v>
       </c>
       <c r="N4">
-        <v>1.021012193540338</v>
+        <v>1.012877182591466</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047750135821745</v>
+        <v>1.01220201841674</v>
       </c>
       <c r="D5">
-        <v>1.04517057640113</v>
+        <v>1.026195276689979</v>
       </c>
       <c r="E5">
-        <v>1.061156763300459</v>
+        <v>1.027014253219772</v>
       </c>
       <c r="F5">
-        <v>1.068369493817113</v>
+        <v>1.029963271221136</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036847682692136</v>
+        <v>1.048846167408646</v>
       </c>
       <c r="J5">
-        <v>1.052130415991772</v>
+        <v>1.030851692551976</v>
       </c>
       <c r="K5">
-        <v>1.04758029324843</v>
+        <v>1.035770562220451</v>
       </c>
       <c r="L5">
-        <v>1.063528305868115</v>
+        <v>1.036580506947809</v>
       </c>
       <c r="M5">
-        <v>1.070724213832518</v>
+        <v>1.039497148818676</v>
       </c>
       <c r="N5">
-        <v>1.021116562537635</v>
+        <v>1.01338773377051</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047817646422947</v>
+        <v>1.012528651856119</v>
       </c>
       <c r="D6">
-        <v>1.045219604173556</v>
+        <v>1.026434459139216</v>
       </c>
       <c r="E6">
-        <v>1.061225610880315</v>
+        <v>1.027334090875998</v>
       </c>
       <c r="F6">
-        <v>1.068445056334932</v>
+        <v>1.03031030042188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036862555735072</v>
+        <v>1.048943968347454</v>
       </c>
       <c r="J6">
-        <v>1.052181654129581</v>
+        <v>1.031095541825656</v>
       </c>
       <c r="K6">
-        <v>1.047620581606921</v>
+        <v>1.035970693189971</v>
       </c>
       <c r="L6">
-        <v>1.063588514324245</v>
+        <v>1.036860452726645</v>
       </c>
       <c r="M6">
-        <v>1.070791186936565</v>
+        <v>1.03980415332145</v>
       </c>
       <c r="N6">
-        <v>1.021134072509047</v>
+        <v>1.013472899846112</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04735329376988</v>
+        <v>1.010271253425824</v>
       </c>
       <c r="D7">
-        <v>1.044882334002862</v>
+        <v>1.024781438963206</v>
       </c>
       <c r="E7">
-        <v>1.060752095977962</v>
+        <v>1.025124130404828</v>
       </c>
       <c r="F7">
-        <v>1.067925385724389</v>
+        <v>1.027912608998266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036760079947741</v>
+        <v>1.048266609421643</v>
       </c>
       <c r="J7">
-        <v>1.051829161043603</v>
+        <v>1.029409823481032</v>
       </c>
       <c r="K7">
-        <v>1.047343357203966</v>
+        <v>1.034586793972671</v>
       </c>
       <c r="L7">
-        <v>1.063174362350587</v>
+        <v>1.034925595434131</v>
       </c>
       <c r="M7">
-        <v>1.070330539569812</v>
+        <v>1.037682540073425</v>
       </c>
       <c r="N7">
-        <v>1.021013589066336</v>
+        <v>1.01288404228261</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045408906668425</v>
+        <v>1.000537462487028</v>
       </c>
       <c r="D8">
-        <v>1.043468930599585</v>
+        <v>1.017654467633042</v>
       </c>
       <c r="E8">
-        <v>1.058770188722515</v>
+        <v>1.015607223613897</v>
       </c>
       <c r="F8">
-        <v>1.065750984095224</v>
+        <v>1.017590926102467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03632660356311</v>
+        <v>1.04530970605697</v>
       </c>
       <c r="J8">
-        <v>1.050351521476468</v>
+        <v>1.022130085580184</v>
       </c>
       <c r="K8">
-        <v>1.046179738895705</v>
+        <v>1.028600492398887</v>
       </c>
       <c r="L8">
-        <v>1.061439557930471</v>
+        <v>1.026579855068668</v>
       </c>
       <c r="M8">
-        <v>1.068401874982852</v>
+        <v>1.028537774660966</v>
       </c>
       <c r="N8">
-        <v>1.020507941997458</v>
+        <v>1.010338460180902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041969033489621</v>
+        <v>0.9821079164714136</v>
       </c>
       <c r="D9">
-        <v>1.040964179528591</v>
+        <v>1.00417333361265</v>
       </c>
       <c r="E9">
-        <v>1.055267152062418</v>
+        <v>0.9976403675836358</v>
       </c>
       <c r="F9">
-        <v>1.061910303127156</v>
+        <v>0.9981166862455035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03554323579818</v>
+        <v>1.0395762789035</v>
       </c>
       <c r="J9">
-        <v>1.047731210329054</v>
+        <v>1.008308705423524</v>
       </c>
       <c r="K9">
-        <v>1.044110648099917</v>
+        <v>1.017199062333896</v>
       </c>
       <c r="L9">
-        <v>1.058368132878577</v>
+        <v>1.010771844539673</v>
       </c>
       <c r="M9">
-        <v>1.064990611932563</v>
+        <v>1.011240392981464</v>
       </c>
       <c r="N9">
-        <v>1.019609081544482</v>
+        <v>1.005496755675381</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03966612184061</v>
+        <v>0.9687930832903374</v>
       </c>
       <c r="D10">
-        <v>1.039284522351295</v>
+        <v>0.9944529868926493</v>
       </c>
       <c r="E10">
-        <v>1.052924139000165</v>
+        <v>0.9846999084893341</v>
       </c>
       <c r="F10">
-        <v>1.059343181922102</v>
+        <v>0.9840961680663579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035007732205117</v>
+        <v>1.035347884697864</v>
       </c>
       <c r="J10">
-        <v>1.045972846633695</v>
+        <v>0.998301997713454</v>
       </c>
       <c r="K10">
-        <v>1.042718426614907</v>
+        <v>1.008923121874387</v>
       </c>
       <c r="L10">
-        <v>1.056310339760023</v>
+        <v>0.9993510171600982</v>
       </c>
       <c r="M10">
-        <v>1.062707400093712</v>
+        <v>0.99875863348762</v>
       </c>
       <c r="N10">
-        <v>1.019004439688277</v>
+        <v>1.001987072647004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038666529711178</v>
+        <v>0.9627384236260814</v>
       </c>
       <c r="D11">
-        <v>1.038554813012468</v>
+        <v>0.9900402193433816</v>
       </c>
       <c r="E11">
-        <v>1.05190766374732</v>
+        <v>0.978826210384211</v>
       </c>
       <c r="F11">
-        <v>1.058229886935084</v>
+        <v>0.977732896954468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034772679016025</v>
+        <v>1.03340614275497</v>
       </c>
       <c r="J11">
-        <v>1.045208644853335</v>
+        <v>0.9937479031606128</v>
       </c>
       <c r="K11">
-        <v>1.042112471218639</v>
+        <v>1.005152438920051</v>
       </c>
       <c r="L11">
-        <v>1.05541677969784</v>
+        <v>0.9941587937474113</v>
       </c>
       <c r="M11">
-        <v>1.061716490729595</v>
+        <v>0.9930873205172998</v>
       </c>
       <c r="N11">
-        <v>1.018741313427918</v>
+        <v>1.000389188772111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038294863764729</v>
+        <v>0.9604414595554973</v>
       </c>
       <c r="D12">
-        <v>1.038283398808978</v>
+        <v>0.9883675167158174</v>
       </c>
       <c r="E12">
-        <v>1.051529799365576</v>
+        <v>0.9765996254848757</v>
       </c>
       <c r="F12">
-        <v>1.057816091435959</v>
+        <v>0.9753207604463926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034684889917484</v>
+        <v>1.032666797536816</v>
       </c>
       <c r="J12">
-        <v>1.044924355325623</v>
+        <v>0.9920197736981434</v>
       </c>
       <c r="K12">
-        <v>1.04188691875562</v>
+        <v>1.003721022362814</v>
       </c>
       <c r="L12">
-        <v>1.055084484149742</v>
+        <v>0.9921893039133529</v>
       </c>
       <c r="M12">
-        <v>1.061348073217804</v>
+        <v>0.9909365575522512</v>
       </c>
       <c r="N12">
-        <v>1.018643376957114</v>
+        <v>0.9997827904181754</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038374604407589</v>
+        <v>0.9609364181523616</v>
       </c>
       <c r="D13">
-        <v>1.038341634812957</v>
+        <v>0.9887278904251602</v>
       </c>
       <c r="E13">
-        <v>1.051610866296616</v>
+        <v>0.9770793385450772</v>
       </c>
       <c r="F13">
-        <v>1.057904864281314</v>
+        <v>0.9758404498164334</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034703742735201</v>
+        <v>1.03282623397242</v>
       </c>
       <c r="J13">
-        <v>1.044985356017109</v>
+        <v>0.9923921751702892</v>
       </c>
       <c r="K13">
-        <v>1.041935322051294</v>
+        <v>1.004029508244678</v>
       </c>
       <c r="L13">
-        <v>1.055155780350113</v>
+        <v>0.992613682011165</v>
       </c>
       <c r="M13">
-        <v>1.061427116001948</v>
+        <v>0.9913999758424273</v>
       </c>
       <c r="N13">
-        <v>1.018664393738014</v>
+        <v>0.9999134673830299</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038635815353295</v>
+        <v>0.962549563542649</v>
       </c>
       <c r="D14">
-        <v>1.038532385365424</v>
+        <v>0.9899026575383935</v>
       </c>
       <c r="E14">
-        <v>1.051876435539082</v>
+        <v>0.9786431012645119</v>
       </c>
       <c r="F14">
-        <v>1.058195688002175</v>
+        <v>0.9775345282202048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034765432146457</v>
+        <v>1.033345406502914</v>
       </c>
       <c r="J14">
-        <v>1.045185154227288</v>
+        <v>0.9936058216496623</v>
       </c>
       <c r="K14">
-        <v>1.042093836677505</v>
+        <v>1.005034763245626</v>
       </c>
       <c r="L14">
-        <v>1.055389320000466</v>
+        <v>0.9939968525262236</v>
       </c>
       <c r="M14">
-        <v>1.061686044411679</v>
+        <v>0.992910465152697</v>
       </c>
       <c r="N14">
-        <v>1.01873322205626</v>
+        <v>1.000339333415823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038796706323928</v>
+        <v>0.9635369689487745</v>
       </c>
       <c r="D15">
-        <v>1.038649864174053</v>
+        <v>0.9906219208354741</v>
       </c>
       <c r="E15">
-        <v>1.052040021447843</v>
+        <v>0.9796005101363542</v>
       </c>
       <c r="F15">
-        <v>1.05837483824166</v>
+        <v>0.9785717248704735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034803377360964</v>
+        <v>1.03366284117518</v>
       </c>
       <c r="J15">
-        <v>1.04530819916726</v>
+        <v>0.9943486406109394</v>
       </c>
       <c r="K15">
-        <v>1.042191439833987</v>
+        <v>1.005649963087268</v>
       </c>
       <c r="L15">
-        <v>1.055533159872071</v>
+        <v>0.9948435322391107</v>
       </c>
       <c r="M15">
-        <v>1.061845532130141</v>
+        <v>0.9938351388823302</v>
       </c>
       <c r="N15">
-        <v>1.018775602922509</v>
+        <v>1.000599981170765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039732409727296</v>
+        <v>0.9691884444425034</v>
       </c>
       <c r="D16">
-        <v>1.039332899532548</v>
+        <v>0.9947413086046901</v>
       </c>
       <c r="E16">
-        <v>1.052991557536515</v>
+        <v>0.9850836839820963</v>
       </c>
       <c r="F16">
-        <v>1.059417030619178</v>
+        <v>0.9845119397292652</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035023264760075</v>
+        <v>1.03547429801478</v>
       </c>
       <c r="J16">
-        <v>1.046023504165185</v>
+        <v>0.9985993068858066</v>
       </c>
       <c r="K16">
-        <v>1.042758575773806</v>
+        <v>1.009169204862684</v>
       </c>
       <c r="L16">
-        <v>1.056369588525502</v>
+        <v>0.9996900958902019</v>
       </c>
       <c r="M16">
-        <v>1.062773114978304</v>
+        <v>0.9991290633824971</v>
       </c>
       <c r="N16">
-        <v>1.019021874649371</v>
+        <v>1.002091379249991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040318697894181</v>
+        <v>0.9726530220582739</v>
       </c>
       <c r="D17">
-        <v>1.039760700949658</v>
+        <v>0.9972687502679999</v>
       </c>
       <c r="E17">
-        <v>1.053587906226938</v>
+        <v>0.9884479547730193</v>
       </c>
       <c r="F17">
-        <v>1.060070303886472</v>
+        <v>0.9881567650939751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035160342003308</v>
+        <v>1.036579948619432</v>
       </c>
       <c r="J17">
-        <v>1.046471436185752</v>
+        <v>1.00120424061804</v>
       </c>
       <c r="K17">
-        <v>1.043113487329589</v>
+        <v>1.011324838260629</v>
       </c>
       <c r="L17">
-        <v>1.056893576815667</v>
+        <v>1.002661611038978</v>
       </c>
       <c r="M17">
-        <v>1.06335435043481</v>
+        <v>1.002375685330358</v>
       </c>
       <c r="N17">
-        <v>1.019176001289233</v>
+        <v>1.003005217717098</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040660437410436</v>
+        <v>0.9746462821885685</v>
       </c>
       <c r="D18">
-        <v>1.040009998482214</v>
+        <v>0.9987235237329081</v>
       </c>
       <c r="E18">
-        <v>1.053935560261533</v>
+        <v>0.9903845020267863</v>
       </c>
       <c r="F18">
-        <v>1.060451182419854</v>
+        <v>0.990254872955446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035239990524099</v>
+        <v>1.037214271279825</v>
       </c>
       <c r="J18">
-        <v>1.046732435901169</v>
+        <v>1.002702566464948</v>
       </c>
       <c r="K18">
-        <v>1.043320201142822</v>
+        <v>1.012564327256803</v>
       </c>
       <c r="L18">
-        <v>1.057198967566122</v>
+        <v>1.004371301666348</v>
       </c>
       <c r="M18">
-        <v>1.063693157492927</v>
+        <v>1.004243967262711</v>
       </c>
       <c r="N18">
-        <v>1.019265774298317</v>
+        <v>1.0035307863856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040776922624693</v>
+        <v>0.9753213834835802</v>
       </c>
       <c r="D19">
-        <v>1.040094963364566</v>
+        <v>0.9992163504357876</v>
       </c>
       <c r="E19">
-        <v>1.054054070028262</v>
+        <v>0.9910405609020385</v>
       </c>
       <c r="F19">
-        <v>1.060581024537489</v>
+        <v>0.9909656781746481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035267096733789</v>
+        <v>1.037428804249837</v>
       </c>
       <c r="J19">
-        <v>1.04682138424111</v>
+        <v>1.003209973094696</v>
       </c>
       <c r="K19">
-        <v>1.043390634483334</v>
+        <v>1.012984008273424</v>
       </c>
       <c r="L19">
-        <v>1.057303057004803</v>
+        <v>1.004950374384528</v>
       </c>
       <c r="M19">
-        <v>1.063808645298246</v>
+        <v>1.004876807722231</v>
       </c>
       <c r="N19">
-        <v>1.019296363201045</v>
+        <v>1.003708758477672</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040255818837883</v>
+        <v>0.9722841880060233</v>
       </c>
       <c r="D20">
-        <v>1.039714825926133</v>
+        <v>0.9969996107657687</v>
       </c>
       <c r="E20">
-        <v>1.053523942970699</v>
+        <v>0.9880896948799661</v>
       </c>
       <c r="F20">
-        <v>1.060000230960817</v>
+        <v>0.9877686224935763</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035145666615149</v>
+        <v>1.036462427396333</v>
       </c>
       <c r="J20">
-        <v>1.046423405451055</v>
+        <v>1.000926959554537</v>
       </c>
       <c r="K20">
-        <v>1.043075439760202</v>
+        <v>1.011095424373832</v>
       </c>
       <c r="L20">
-        <v>1.056837383002885</v>
+        <v>1.002345256360611</v>
       </c>
       <c r="M20">
-        <v>1.063292011963331</v>
+        <v>1.002030010537345</v>
       </c>
       <c r="N20">
-        <v>1.019159478057064</v>
+        <v>1.002907950549984</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038558905614869</v>
+        <v>0.9620758970931625</v>
       </c>
       <c r="D21">
-        <v>1.038476224280593</v>
+        <v>0.9895576716834562</v>
       </c>
       <c r="E21">
-        <v>1.051798240380267</v>
+        <v>0.9781838865789488</v>
       </c>
       <c r="F21">
-        <v>1.058110055153221</v>
+        <v>0.9770370446488467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034747279420682</v>
+        <v>1.033193035325206</v>
       </c>
       <c r="J21">
-        <v>1.045126330591287</v>
+        <v>0.993249470622364</v>
       </c>
       <c r="K21">
-        <v>1.04204717119253</v>
+        <v>1.004739615049249</v>
       </c>
       <c r="L21">
-        <v>1.055320559162487</v>
+        <v>0.9935907044321289</v>
       </c>
       <c r="M21">
-        <v>1.061609806178127</v>
+        <v>0.9924669195875098</v>
       </c>
       <c r="N21">
-        <v>1.018712959363852</v>
+        <v>1.000214291734364</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037489826329846</v>
+        <v>0.9553770979599812</v>
       </c>
       <c r="D22">
-        <v>1.037695336010245</v>
+        <v>0.9846823952819593</v>
       </c>
       <c r="E22">
-        <v>1.050711480963636</v>
+        <v>0.9716937695894724</v>
       </c>
       <c r="F22">
-        <v>1.056920069738679</v>
+        <v>0.9700060589702502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034494019825314</v>
+        <v>1.031031865287292</v>
       </c>
       <c r="J22">
-        <v>1.044308310985135</v>
+        <v>0.9882089287847623</v>
       </c>
       <c r="K22">
-        <v>1.041397914650887</v>
+        <v>1.000563529110061</v>
       </c>
       <c r="L22">
-        <v>1.054364625198199</v>
+        <v>0.9878476363584864</v>
       </c>
       <c r="M22">
-        <v>1.06055010884031</v>
+        <v>0.9861960750789943</v>
       </c>
       <c r="N22">
-        <v>1.018431058902831</v>
+        <v>0.9984455161313911</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038056773808173</v>
+        <v>0.9589565384200576</v>
       </c>
       <c r="D23">
-        <v>1.038109503628765</v>
+        <v>0.987286586503113</v>
       </c>
       <c r="E23">
-        <v>1.051287760972971</v>
+        <v>0.9751607054265393</v>
       </c>
       <c r="F23">
-        <v>1.057551054649403</v>
+        <v>0.9737619291601686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034628541713795</v>
+        <v>1.03218808926625</v>
       </c>
       <c r="J23">
-        <v>1.044742197873626</v>
+        <v>0.9909024816639996</v>
       </c>
       <c r="K23">
-        <v>1.041742359797142</v>
+        <v>1.002795415377615</v>
       </c>
       <c r="L23">
-        <v>1.054871599737995</v>
+        <v>0.9909161829726288</v>
       </c>
       <c r="M23">
-        <v>1.061112069879621</v>
+        <v>0.9895463808095185</v>
       </c>
       <c r="N23">
-        <v>1.018580610127112</v>
+        <v>0.9993907240294827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040284231895262</v>
+        <v>0.9724509331001001</v>
       </c>
       <c r="D24">
-        <v>1.039735555591069</v>
+        <v>0.9971212831780611</v>
       </c>
       <c r="E24">
-        <v>1.053552845788069</v>
+        <v>0.9882516564458775</v>
       </c>
       <c r="F24">
-        <v>1.06003189440881</v>
+        <v>0.9879440931726255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035152298737964</v>
+        <v>1.036515562780986</v>
       </c>
       <c r="J24">
-        <v>1.046445109311552</v>
+        <v>1.00105231585461</v>
       </c>
       <c r="K24">
-        <v>1.043092632746515</v>
+        <v>1.01119914161337</v>
       </c>
       <c r="L24">
-        <v>1.056862775318326</v>
+        <v>1.00248827590147</v>
       </c>
       <c r="M24">
-        <v>1.063320180708285</v>
+        <v>1.002186284340203</v>
       </c>
       <c r="N24">
-        <v>1.019166944585253</v>
+        <v>1.002951924359472</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042859988724301</v>
+        <v>0.9870399508324837</v>
       </c>
       <c r="D25">
-        <v>1.041613426407595</v>
+        <v>1.007778620419822</v>
       </c>
       <c r="E25">
-        <v>1.056174084410837</v>
+        <v>1.002442131654989</v>
       </c>
       <c r="F25">
-        <v>1.062904346221509</v>
+        <v>1.003320159933568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035748082426176</v>
+        <v>1.041125688135382</v>
       </c>
       <c r="J25">
-        <v>1.04841062050915</v>
+        <v>1.012011485026038</v>
       </c>
       <c r="K25">
-        <v>1.044647797128163</v>
+        <v>1.020257371607021</v>
       </c>
       <c r="L25">
-        <v>1.059163930886444</v>
+        <v>1.015002654600199</v>
       </c>
       <c r="M25">
-        <v>1.065874061674931</v>
+        <v>1.015867152415864</v>
       </c>
       <c r="N25">
-        <v>1.019842401231313</v>
+        <v>1.006794705227727</v>
       </c>
     </row>
   </sheetData>
